--- a/Measurements/Test 6 - Antena Vamia V0 Obstacles/Statistics6.xlsx
+++ b/Measurements/Test 6 - Antena Vamia V0 Obstacles/Statistics6.xlsx
@@ -1,37 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\Proyects\Work\Vamia-SerialPortReading\Measurements\Test 6 - Antena Vamia V0 Obstacles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219E9A08-BBF6-4891-B48C-7E62A17B6A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +105,1267 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Vamia</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> Gateway Directional Antenna - Obstacles</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>34.533333333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.93333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.06666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.733333333333327</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.533333333333331</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43.266666666666673</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41.266666666666673</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47.93333333333333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>55.06666666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57.266666666666673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0692-426E-B48E-6797BCE14ADB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>26.525749891599531</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.051499783199063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.453781259591089</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.577249674798587</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.979531151190621</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.653200891955947</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.102999566398118</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.381812627582654</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.525749891599531</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53.505281042790152</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55.178950783555479</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.62874945799765</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57.907562519182179</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59.051499783199063</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60.086316912154686</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61.031030934389676</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>61.900083590869983</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62.70470067515501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0692-426E-B48E-6797BCE14ADB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="419231888"/>
+        <c:axId val="419232720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="419231888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419232720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="419232720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419231888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8FE8E01-0CB6-A6BD-1E49-DA23C1725E74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,252 +1652,682 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Standard Deviation</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>44</v>
+      </c>
+      <c r="G1">
+        <v>2.5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>-37.33333333333334</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.577621275493231</v>
+      <c r="B2">
+        <v>-37.333333333333343</v>
+      </c>
+      <c r="C2">
+        <v>1.5776212754932311</v>
+      </c>
+      <c r="E2">
+        <f>-B2</f>
+        <v>37.333333333333343</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>20</v>
       </c>
-      <c r="B3" t="n">
-        <v>-34.53333333333333</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.445858177045885</v>
+      <c r="B3">
+        <v>-34.533333333333331</v>
+      </c>
+      <c r="C3">
+        <v>2.4458581770458849</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E21" si="0">-B3</f>
+        <v>34.533333333333331</v>
+      </c>
+      <c r="F3">
+        <f>10*$G$1*LOG10(A3/100)+$F$1</f>
+        <v>26.525749891599531</v>
+      </c>
+      <c r="H3" s="1">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <f>POWER(10,(E3-$F$1)/(10*$G$1))*100</f>
+        <v>41.815118640788562</v>
+      </c>
+      <c r="J3" s="2">
+        <f>(I3-H3)/H3</f>
+        <v>1.090755932039428</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>40</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-31.4</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.624807680927192</v>
+      <c r="C4">
+        <v>1.6248076809271921</v>
+      </c>
+      <c r="D4" s="1">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>31.4</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F21" si="1">10*$G$1*LOG10(A4/100)+$F$1</f>
+        <v>34.051499783199063</v>
+      </c>
+      <c r="H4" s="1">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I21" si="2">POWER(10,(E4-$F$1)/(10*$G$1))*100</f>
+        <v>31.332857243155853</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J21" si="3">(I4-H4)/H4</f>
+        <v>-0.21667856892110365</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>60</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-33.4</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>2.0591260281974</v>
       </c>
+      <c r="D5" s="1">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>33.4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>38.453781259591089</v>
+      </c>
+      <c r="H5" s="1">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>37.670379898390877</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.37216033502681872</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>80</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-37.93333333333333</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.7717224601860151</v>
+      <c r="C6">
+        <v>0.77172246018601509</v>
+      </c>
+      <c r="D6" s="1">
+        <v>80</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>37.93333333333333</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>41.577249674798587</v>
+      </c>
+      <c r="H6" s="1">
+        <v>80</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>57.191743110716828</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.28510321111603965</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>100</v>
       </c>
-      <c r="B7" t="n">
-        <v>-35.33333333333334</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7">
+        <v>-35.333333333333343</v>
+      </c>
+      <c r="C7">
         <v>1.920648038785058</v>
       </c>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>35.333333333333343</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="H7" s="1">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>45.012520620613401</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.54987479379386595</v>
+      </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>120</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-38.06666666666667</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.9285592184789413</v>
       </c>
+      <c r="D8" s="1">
+        <v>120</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>38.06666666666667</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>45.979531151190621</v>
+      </c>
+      <c r="H8" s="1">
+        <v>120</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>57.898413909427127</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.51751321742144063</v>
+      </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>140</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-44.8</v>
       </c>
-      <c r="C9" t="n">
-        <v>2.039607805437114</v>
+      <c r="C9">
+        <v>2.0396078054371141</v>
+      </c>
+      <c r="D9" s="1">
+        <v>140</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>44.8</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>47.653200891955947</v>
+      </c>
+      <c r="H9" s="1">
+        <v>140</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>107.64652136298348</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.23109627597868945</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>160</v>
       </c>
-      <c r="B10" t="n">
-        <v>-41.13333333333333</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.276449477195183</v>
+      <c r="B10">
+        <v>-41.133333333333333</v>
+      </c>
+      <c r="C10">
+        <v>2.2764494771951829</v>
+      </c>
+      <c r="D10" s="1">
+        <v>160</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>41.133333333333333</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>49.102999566398118</v>
+      </c>
+      <c r="H10" s="1">
+        <v>160</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>76.795068715468403</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.5200308205283225</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>180</v>
       </c>
-      <c r="B11" t="n">
-        <v>-38.73333333333333</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11">
+        <v>-38.733333333333327</v>
+      </c>
+      <c r="C11">
         <v>1.388844443733311</v>
       </c>
+      <c r="D11" s="1">
+        <v>180</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>38.733333333333327</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>50.381812627582654</v>
+      </c>
+      <c r="H11" s="1">
+        <v>180</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>61.564921965540421</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.6579726557469977</v>
+      </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>200</v>
       </c>
-      <c r="B12" t="n">
-        <v>-42.53333333333333</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8844332774281066</v>
+      <c r="B12">
+        <v>-42.533333333333331</v>
+      </c>
+      <c r="C12">
+        <v>0.88443327742810662</v>
+      </c>
+      <c r="D12" s="1">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>42.533333333333331</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>51.525749891599531</v>
+      </c>
+      <c r="H12" s="1">
+        <v>200</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>87.364165587402169</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.56317917206298918</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>240</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-51.6</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>3.050682983639347</v>
       </c>
+      <c r="D13" s="1">
+        <v>240</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>51.6</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>53.505281042790152</v>
+      </c>
+      <c r="H13" s="1">
+        <v>240</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>201.37242498623885</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.16094822922400479</v>
+      </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>280</v>
       </c>
-      <c r="B14" t="n">
-        <v>-43.26666666666667</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14">
+        <v>-43.266666666666673</v>
+      </c>
+      <c r="C14">
         <v>1.691810338726603</v>
       </c>
+      <c r="D14" s="1">
+        <v>280</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>43.266666666666673</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>55.178950783555479</v>
+      </c>
+      <c r="H14" s="1">
+        <v>280</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>93.46879992136536</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.6661828574236951</v>
+      </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>320</v>
       </c>
-      <c r="B15" t="n">
-        <v>-41.26666666666667</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.7717224601860149</v>
+      <c r="B15">
+        <v>-41.266666666666673</v>
+      </c>
+      <c r="C15">
+        <v>0.77172246018601487</v>
+      </c>
+      <c r="D15" s="1">
+        <v>320</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>41.266666666666673</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>56.62874945799765</v>
+      </c>
+      <c r="H15" s="1">
+        <v>320</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>77.743961503035891</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.75705012030301277</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>360</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-44</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.816496580927726</v>
+      <c r="C16">
+        <v>0.81649658092772603</v>
+      </c>
+      <c r="D16" s="1">
+        <v>360</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>57.907562519182179</v>
+      </c>
+      <c r="H16" s="1">
+        <v>360</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.72222222222222221</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>400</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-47.93333333333333</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>2.048305532764962</v>
       </c>
+      <c r="D17" s="1">
+        <v>400</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>47.93333333333333</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>59.051499783199063</v>
+      </c>
+      <c r="H17" s="1">
+        <v>400</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>143.65916351419114</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.64085209121452213</v>
+      </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>440</v>
       </c>
-      <c r="B18" t="n">
-        <v>-56.33333333333334</v>
-      </c>
-      <c r="C18" t="n">
-        <v>7.665217254295898</v>
+      <c r="B18">
+        <v>-56.333333333333343</v>
+      </c>
+      <c r="C18">
+        <v>7.6652172542958983</v>
+      </c>
+      <c r="D18" s="1">
+        <v>440</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>56.333333333333343</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>60.086316912154686</v>
+      </c>
+      <c r="H18" s="1">
+        <v>440</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>311.41055844467627</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.29224873080755392</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>480</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-55.06666666666667</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>2.20504472113883</v>
       </c>
+      <c r="D19" s="1">
+        <v>480</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>55.06666666666667</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>61.031030934389676</v>
+      </c>
+      <c r="H19" s="1">
+        <v>480</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>277.11923194803438</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.42266826677492836</v>
+      </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>520</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-59.6</v>
       </c>
-      <c r="C20" t="n">
-        <v>3.895296308797745</v>
+      <c r="C20">
+        <v>3.8952963087977448</v>
+      </c>
+      <c r="D20" s="1">
+        <v>520</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>59.6</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>61.900083590869983</v>
+      </c>
+      <c r="H20" s="1">
+        <v>520</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>420.72662838444427</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.19091033002991487</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>560</v>
       </c>
-      <c r="B21" t="n">
-        <v>-57.26666666666667</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4.999555535800713</v>
+      <c r="B21">
+        <v>-57.266666666666673</v>
+      </c>
+      <c r="C21">
+        <v>4.9995555358007131</v>
+      </c>
+      <c r="D21" s="1">
+        <v>560</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>57.266666666666673</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>62.70470067515501</v>
+      </c>
+      <c r="H21" s="1">
+        <v>560</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>339.36470057145141</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.39399160612240819</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J24" s="3" cm="1">
+        <f t="array" ref="J24">SUM(ABS(J3:J21))/COUNT(J3:J21)</f>
+        <v>0.48691786509252416</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>